--- a/023_Time series forecasting based on long short-term memory networks/数据集.xlsx
+++ b/023_Time series forecasting based on long short-term memory networks/数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\GitHub项目程序\中文版本\023_基于长短期记忆网络的时间序列预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Matlab程序集合\基于BP神经网络的时间序列预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1D412-181B-4D77-8B1F-A222527423C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCB6B6-15A3-4D22-A098-40FD78D4F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="101">
   <si>
     <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>0时15分00秒</t>
+  </si>
+  <si>
+    <t>0时30分00秒</t>
+  </si>
+  <si>
+    <t>0时45分00秒</t>
+  </si>
+  <si>
+    <t>1时00分00秒</t>
+  </si>
+  <si>
+    <t>1时15分00秒</t>
+  </si>
+  <si>
+    <t>1时30分00秒</t>
+  </si>
+  <si>
+    <t>1时45分00秒</t>
+  </si>
+  <si>
+    <t>2时00分00秒</t>
+  </si>
+  <si>
+    <t>2时15分00秒</t>
+  </si>
+  <si>
+    <t>2时30分00秒</t>
+  </si>
+  <si>
+    <t>2时45分00秒</t>
+  </si>
+  <si>
+    <t>3时00分00秒</t>
+  </si>
+  <si>
+    <t>3时15分00秒</t>
+  </si>
+  <si>
+    <t>3时30分00秒</t>
+  </si>
+  <si>
+    <t>3时45分00秒</t>
+  </si>
+  <si>
+    <t>4时00分00秒</t>
+  </si>
+  <si>
+    <t>4时15分00秒</t>
+  </si>
+  <si>
+    <t>4时30分00秒</t>
+  </si>
+  <si>
+    <t>4时45分00秒</t>
+  </si>
+  <si>
+    <t>5时00分00秒</t>
+  </si>
+  <si>
+    <t>5时15分00秒</t>
+  </si>
+  <si>
+    <t>5时30分00秒</t>
+  </si>
+  <si>
+    <t>5时45分00秒</t>
+  </si>
+  <si>
+    <t>6时00分00秒</t>
+  </si>
+  <si>
+    <t>6时15分00秒</t>
+  </si>
+  <si>
+    <t>6时30分00秒</t>
+  </si>
+  <si>
+    <t>6时45分00秒</t>
+  </si>
+  <si>
+    <t>7时00分00秒</t>
+  </si>
+  <si>
+    <t>7时15分00秒</t>
+  </si>
+  <si>
+    <t>7时30分00秒</t>
+  </si>
+  <si>
+    <t>7时45分00秒</t>
+  </si>
+  <si>
+    <t>8时00分00秒</t>
+  </si>
+  <si>
+    <t>8时15分00秒</t>
+  </si>
+  <si>
+    <t>8时30分00秒</t>
+  </si>
+  <si>
+    <t>8时45分00秒</t>
+  </si>
+  <si>
+    <t>9时00分00秒</t>
+  </si>
+  <si>
+    <t>9时15分00秒</t>
+  </si>
+  <si>
+    <t>9时30分00秒</t>
+  </si>
+  <si>
+    <t>9时45分00秒</t>
+  </si>
+  <si>
+    <t>10时00分00秒</t>
+  </si>
+  <si>
+    <t>10时15分00秒</t>
+  </si>
+  <si>
+    <t>10时30分00秒</t>
+  </si>
+  <si>
+    <t>10时45分00秒</t>
+  </si>
+  <si>
+    <t>11时00分00秒</t>
+  </si>
+  <si>
+    <t>11时15分00秒</t>
+  </si>
+  <si>
+    <t>11时30分00秒</t>
+  </si>
+  <si>
+    <t>11时45分00秒</t>
+  </si>
+  <si>
+    <t>12时00分00秒</t>
+  </si>
+  <si>
+    <t>12时15分00秒</t>
+  </si>
+  <si>
+    <t>12时30分00秒</t>
+  </si>
+  <si>
+    <t>12时45分00秒</t>
+  </si>
+  <si>
+    <t>13时00分00秒</t>
+  </si>
+  <si>
+    <t>13时15分00秒</t>
+  </si>
+  <si>
+    <t>13时30分00秒</t>
+  </si>
+  <si>
+    <t>13时45分00秒</t>
+  </si>
+  <si>
+    <t>14时00分00秒</t>
+  </si>
+  <si>
+    <t>14时15分00秒</t>
+  </si>
+  <si>
+    <t>14时30分00秒</t>
+  </si>
+  <si>
+    <t>14时45分00秒</t>
+  </si>
+  <si>
+    <t>15时00分00秒</t>
+  </si>
+  <si>
+    <t>15时15分00秒</t>
+  </si>
+  <si>
+    <t>15时30分00秒</t>
+  </si>
+  <si>
+    <t>15时45分00秒</t>
+  </si>
+  <si>
+    <t>16时00分00秒</t>
+  </si>
+  <si>
+    <t>16时15分00秒</t>
+  </si>
+  <si>
+    <t>16时30分00秒</t>
+  </si>
+  <si>
+    <t>16时45分00秒</t>
+  </si>
+  <si>
+    <t>17时00分00秒</t>
+  </si>
+  <si>
+    <t>17时15分00秒</t>
+  </si>
+  <si>
+    <t>17时30分00秒</t>
+  </si>
+  <si>
+    <t>17时45分00秒</t>
+  </si>
+  <si>
+    <t>18时00分00秒</t>
+  </si>
+  <si>
+    <t>18时15分00秒</t>
+  </si>
+  <si>
+    <t>18时30分00秒</t>
+  </si>
+  <si>
+    <t>18时45分00秒</t>
+  </si>
+  <si>
+    <t>19时00分00秒</t>
+  </si>
+  <si>
+    <t>19时15分00秒</t>
+  </si>
+  <si>
+    <t>19时30分00秒</t>
+  </si>
+  <si>
+    <t>19时45分00秒</t>
+  </si>
+  <si>
+    <t>20时00分00秒</t>
+  </si>
+  <si>
+    <t>20时15分00秒</t>
+  </si>
+  <si>
+    <t>20时30分00秒</t>
+  </si>
+  <si>
+    <t>20时45分00秒</t>
+  </si>
+  <si>
+    <t>21时00分00秒</t>
+  </si>
+  <si>
+    <t>21时15分00秒</t>
+  </si>
+  <si>
+    <t>21时30分00秒</t>
+  </si>
+  <si>
+    <t>21时45分00秒</t>
+  </si>
+  <si>
+    <t>22时00分00秒</t>
+  </si>
+  <si>
+    <t>22时15分00秒</t>
+  </si>
+  <si>
+    <t>22时30分00秒</t>
+  </si>
+  <si>
+    <t>22时45分00秒</t>
+  </si>
+  <si>
+    <t>23时00分00秒</t>
+  </si>
+  <si>
+    <t>23时15分00秒</t>
+  </si>
+  <si>
+    <t>23时30分00秒</t>
+  </si>
+  <si>
+    <t>23时45分00秒</t>
+  </si>
+  <si>
+    <t>0时00分00秒</t>
+  </si>
+  <si>
+    <t>1时45分00秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17时30分00秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17时45分00秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,6 +338,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="h&quot;时&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,8 +377,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,4701 +661,7518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A938"/>
+  <dimension ref="A1:B938"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="A933" sqref="A933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0.49192000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>0.49310999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>0.49349999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>0.49313000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>0.49303000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>0.49330000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
         <v>0.49419999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>0.49370999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>0.49681999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>0.51798999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>0.52081999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>0.51993999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>0.52617999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>0.53988999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>0.53993999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>0.54418</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>0.54625999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>0.54805999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>0.54662999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>0.55510000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>0.56303999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>0.57974999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>0.56589999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>0.56357000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>0.56420999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>0.56057000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>0.55815999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>0.56103000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
         <v>0.56155999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>0.56044000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>0.55883000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>0.55935000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>0.56096000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>0.56364999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>0.56354000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
         <v>0.56791000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>0.57506000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
         <v>0.58342000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
         <v>0.60187999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
         <v>0.60153000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>0.60636000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
         <v>0.60655000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
         <v>0.63005</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
         <v>0.62068999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
         <v>0.61494000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
         <v>0.60309999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
         <v>0.60763</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>0.60329999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
         <v>0.59972000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
         <v>0.59809000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
         <v>0.59387000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
         <v>0.58840000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
         <v>0.58586000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
         <v>0.58513000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
         <v>0.58270999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
         <v>0.58233999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
         <v>0.58313999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
         <v>0.58301000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
         <v>0.58709</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
         <v>0.58555999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
         <v>0.58350999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
         <v>0.58233000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
         <v>0.58186000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
         <v>0.58225000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
         <v>0.58155999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
         <v>0.58172000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
         <v>0.58184999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
         <v>0.58169999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
         <v>0.58164000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
         <v>0.58172999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
         <v>0.58174999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
         <v>0.58201000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
         <v>0.58230000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
         <v>0.58201000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
         <v>0.58194999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
         <v>0.58160999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
         <v>0.58155999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
         <v>0.58135000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
         <v>0.58138999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
         <v>0.58138999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
         <v>0.58145999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
         <v>0.57803000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
         <v>0.57525999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
         <v>0.57535000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
         <v>0.57472000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
         <v>0.57448999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
         <v>0.57403000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
         <v>0.57391999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
         <v>0.57357000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
         <v>0.57393000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
         <v>0.57311000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
         <v>0.56901000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
         <v>0.56713999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
         <v>0.56435999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
         <v>0.56286999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
         <v>0.54761000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98">
         <v>0.55230999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99">
         <v>0.54986999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100">
         <v>0.55006999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
         <v>0.55023</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
         <v>0.54730999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
         <v>0.54239000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
         <v>0.53444000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
         <v>0.52642999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
         <v>0.51712000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
         <v>0.51920999999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
         <v>0.51871</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109">
         <v>0.51341999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110">
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111">
         <v>0.51680000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112">
         <v>0.51566999999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
         <v>0.51478000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
         <v>0.51590000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
         <v>0.51892000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116">
         <v>0.52349999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117">
         <v>0.52910999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118">
         <v>0.53366000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119">
         <v>0.53456000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120">
         <v>0.53483999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121">
         <v>0.54452</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122">
         <v>0.54893000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123">
         <v>0.54752999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
         <v>0.55006999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125">
         <v>0.55152000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126">
         <v>0.55189999999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
         <v>0.54801999999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128">
         <v>0.54834000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129">
         <v>0.54551000000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130">
         <v>0.54286000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131">
         <v>0.53903999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132">
         <v>0.53491999999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133">
         <v>0.53049999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134">
         <v>0.52786</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135">
         <v>0.52132999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136">
         <v>0.51866000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137">
         <v>0.51400999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138">
         <v>0.50985000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139">
         <v>0.51876</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140">
         <v>0.51549</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141">
         <v>0.51551999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142">
         <v>0.51188</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143">
         <v>0.50760000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144">
         <v>0.50695000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145">
         <v>0.50556000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146">
         <v>0.50336000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147">
         <v>0.50131000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148">
         <v>0.49153000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149">
         <v>0.49231000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150">
         <v>0.50692000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151">
         <v>0.51104000000000005</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152">
         <v>0.51504000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153">
         <v>0.51419000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154">
         <v>0.51224000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155">
         <v>0.50600999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156">
         <v>0.49875999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157">
         <v>0.49279000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158">
         <v>0.49436999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B159">
         <v>0.49770999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160">
         <v>0.49937999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B161">
         <v>0.50072000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162">
         <v>0.503</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163">
         <v>0.49976999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B164">
         <v>0.49912000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165">
         <v>0.49801000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166">
         <v>0.49453000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167">
         <v>0.49207000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168">
         <v>0.49098000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169">
         <v>0.49187999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170">
         <v>0.48654999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171">
         <v>0.48235</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172">
         <v>0.47869</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173">
         <v>0.48142000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B174">
         <v>0.48659999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175">
         <v>0.48314000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B176">
         <v>0.48520000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177">
         <v>0.48644999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B178">
         <v>0.48792000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179">
         <v>0.48474</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B180">
         <v>0.48277999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B181">
         <v>0.47776999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B182">
         <v>0.47</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B183">
         <v>0.46232000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184">
         <v>0.45261000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B185">
         <v>0.44995000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186">
         <v>0.44033</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187">
         <v>0.43145</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B188">
         <v>0.44002999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189">
         <v>0.44832</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B190">
         <v>0.44889000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B191">
         <v>0.45030999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B192">
         <v>0.44457999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B193">
         <v>0.44553999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194">
         <v>0.45141999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195">
         <v>0.46409</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196">
         <v>0.45852999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197">
         <v>0.45743</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
         <v>0.46282000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199">
         <v>0.46464</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
         <v>0.47220000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
         <v>0.48192000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202">
         <v>0.47903000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203">
         <v>0.46938999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204">
         <v>0.46067999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
         <v>0.45973999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206">
         <v>0.45693</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207">
         <v>0.45656999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208">
         <v>0.45455000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209">
         <v>0.44938</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210">
         <v>0.44646000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211">
         <v>0.44227</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212">
         <v>0.43915999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213">
         <v>0.43958999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214">
         <v>0.44248999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215">
         <v>0.43525000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216">
         <v>0.43381999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B217">
         <v>0.43892999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218">
         <v>0.43869000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219">
         <v>0.44730999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220">
         <v>0.44990999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B221">
         <v>0.45699000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222">
         <v>0.45863999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223">
         <v>0.46559</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B224">
         <v>0.45911999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225">
         <v>0.45284999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B226">
         <v>0.44317000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B227">
         <v>0.4415</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228">
         <v>0.43894</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B229">
         <v>0.43698999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230">
         <v>0.43191000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B231">
         <v>0.42476000000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232">
         <v>0.43015999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233">
         <v>0.4274</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B234">
         <v>0.42826999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235">
         <v>0.42720999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B236">
         <v>0.42448999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237">
         <v>0.42081000000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B238">
         <v>0.42114000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B239">
         <v>0.41880000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240">
         <v>0.42444999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241">
         <v>0.42326000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B242">
         <v>0.42104000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243">
         <v>0.42254999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244">
         <v>0.41932000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B245">
         <v>0.41391</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B246">
         <v>0.41510999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B247">
         <v>0.41860999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248">
         <v>0.41682000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249">
         <v>0.41868</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B250">
         <v>0.41721999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251">
         <v>0.41471999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B252">
         <v>0.41047</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B253">
         <v>0.41021999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254">
         <v>0.41045999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B255">
         <v>0.41533999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B256">
         <v>0.42008000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B257">
         <v>0.42460999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B258">
         <v>0.42664999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B259">
         <v>0.42892999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B260">
         <v>0.4299</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B261">
         <v>0.42294999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262">
         <v>0.41983999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B263">
         <v>0.41502</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B264">
         <v>0.4173</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B265">
         <v>0.41454999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B266">
         <v>0.41711999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B267">
         <v>0.42603000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B268">
         <v>0.43015999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B269">
         <v>0.4385</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B270">
         <v>0.44903999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271">
         <v>0.45539000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B272">
         <v>0.45062999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B273">
         <v>0.44219000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B274">
         <v>0.44452000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B275">
         <v>0.44932</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B276">
         <v>0.45667000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B277">
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B278">
         <v>0.46096999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B279">
         <v>0.46533999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B280">
         <v>0.47315000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B281">
         <v>0.48047000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B282">
         <v>0.48141</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B283">
         <v>0.48404000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B284">
         <v>0.50134999999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B285">
         <v>0.51249</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B286">
         <v>0.50295000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B287">
         <v>0.50660000000000005</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B288">
         <v>0.52349999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B289">
         <v>0.52907000000000004</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290">
         <v>0.53213999999999995</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291">
         <v>0.53825999999999996</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292">
         <v>0.53891</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293">
         <v>0.55620999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294">
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295">
         <v>0.54242999999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296">
         <v>0.54296999999999995</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297">
         <v>0.54312000000000005</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298">
         <v>0.55886999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299">
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300">
         <v>0.55135000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301">
         <v>0.55408000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302">
         <v>0.53366999999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303">
         <v>0.54159999999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304">
         <v>0.54851000000000005</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305">
         <v>0.54745999999999995</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306">
         <v>0.53346000000000005</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307">
         <v>0.52908999999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308">
         <v>0.52490999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B309">
         <v>0.51910999999999996</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B310">
         <v>0.51398999999999995</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311">
         <v>0.52336000000000005</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312">
         <v>0.53183999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B313">
         <v>0.53069999999999995</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314">
         <v>0.52578000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315">
         <v>0.52066000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316">
         <v>0.53410000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317">
         <v>0.53129999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B318">
         <v>0.53508999999999995</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B319">
         <v>0.53695000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320">
         <v>0.54047000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B321">
         <v>0.54261000000000004</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B322">
         <v>0.54583000000000004</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B323">
         <v>0.54813000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324">
         <v>0.55306999999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B325">
         <v>0.55391999999999997</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B326">
         <v>0.55618999999999996</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327">
         <v>0.56057000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B328">
         <v>0.56867000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B329">
         <v>0.56711999999999996</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B330">
         <v>0.56372999999999995</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B331">
         <v>0.56018000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B332">
         <v>0.55186999999999997</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B333">
         <v>0.54622999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B334">
         <v>0.55535999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B335">
         <v>0.55618000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B336">
         <v>0.55786000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B337">
         <v>0.56276000000000004</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B338">
         <v>0.57152000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B339">
         <v>0.57835000000000003</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B340">
         <v>0.57772000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B341">
         <v>0.58228000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B342">
         <v>0.57982999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B343">
         <v>0.57184999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344">
         <v>0.57210000000000005</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B345">
         <v>0.57745000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B346">
         <v>0.58855000000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B347">
         <v>0.58153999999999995</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B348">
         <v>0.57035000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B349">
         <v>0.58037000000000005</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B350">
         <v>0.58062999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B351">
         <v>0.58550999999999997</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B352">
         <v>0.58404999999999996</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B353">
         <v>0.59</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B354">
         <v>0.59030000000000005</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355">
         <v>0.58460000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B356">
         <v>0.58782999999999996</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B357">
         <v>0.59477999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B358">
         <v>0.59782999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B359">
         <v>0.60377999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B360">
         <v>0.61916000000000004</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B361">
         <v>0.62702999999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B362">
         <v>0.61397999999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363">
         <v>0.61724000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B364">
         <v>0.62056999999999995</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B365">
         <v>0.62370000000000003</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B366">
         <v>0.61839999999999995</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B367">
         <v>0.61867000000000005</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B368">
         <v>0.63231000000000004</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B369">
         <v>0.63466</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B370">
         <v>0.64934999999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B371">
         <v>0.65734999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B372">
         <v>0.64924999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B373">
         <v>0.64788999999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B374">
         <v>0.65476999999999996</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B375">
         <v>0.66273000000000004</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B376">
         <v>0.66374999999999995</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B377">
         <v>0.66464999999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B378">
         <v>0.68274999999999997</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B379">
         <v>0.68164999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B380">
         <v>0.66486000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B381">
         <v>0.64986999999999995</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B382">
         <v>0.64580000000000004</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B383">
         <v>0.63922000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B384">
         <v>0.63410999999999995</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B385">
         <v>0.63815</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386">
         <v>0.64249999999999996</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B387">
         <v>0.63197000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388">
         <v>0.63124999999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389">
         <v>0.63556000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390">
         <v>0.65393000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391">
         <v>0.65146999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392">
         <v>0.65259</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393">
         <v>0.65059</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394">
         <v>0.65446000000000004</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395">
         <v>0.65729000000000004</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396">
         <v>0.65622000000000003</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397">
         <v>0.66718999999999995</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B398">
         <v>0.67323999999999995</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B399">
         <v>0.66190000000000004</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400">
         <v>0.65890000000000004</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B401">
         <v>0.66788000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402">
         <v>0.66944000000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403">
         <v>0.66810999999999998</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B404">
         <v>0.66459999999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B405">
         <v>0.66693000000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B406">
         <v>0.67147000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407">
         <v>0.66542999999999997</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B408">
         <v>0.66657999999999995</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B409">
         <v>0.66803999999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B410">
         <v>0.67179</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B411">
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B412">
         <v>0.67566000000000004</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B413">
         <v>0.68191999999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B414">
         <v>0.68525000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B415">
         <v>0.69335999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416">
         <v>0.70438000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B417">
         <v>0.70243</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B418">
         <v>0.69364999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419">
         <v>0.70604999999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420">
         <v>0.71333000000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B421">
         <v>0.70796999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B422">
         <v>0.71294999999999997</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B423">
         <v>0.70708000000000004</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B424">
         <v>0.70604</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B425">
         <v>0.69333999999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B426">
         <v>0.68703999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B427">
         <v>0.6744</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B428">
         <v>0.67896000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B429">
         <v>0.68559999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B430">
         <v>0.69640999999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B431">
         <v>0.69164000000000003</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B432">
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B433">
         <v>0.69874999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B434">
         <v>0.70467000000000002</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B435">
         <v>0.71028999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B436">
         <v>0.71272999999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B437">
         <v>0.72219</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B438">
         <v>0.71940000000000004</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B439">
         <v>0.72241999999999995</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B440">
         <v>0.71962999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B441">
         <v>0.71572000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B442">
         <v>0.72250999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B443">
         <v>0.73060000000000003</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B444">
         <v>0.73929999999999996</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B445">
         <v>0.75170000000000003</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B446">
         <v>0.76251999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B447">
         <v>0.75656000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B448">
         <v>0.75563999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B449">
         <v>0.76310999999999996</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B450">
         <v>0.76204000000000005</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B451">
         <v>0.75827999999999995</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B452">
         <v>0.76222000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B453">
         <v>0.76319000000000004</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B454">
         <v>0.77959000000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B455">
         <v>0.78566000000000003</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B456">
         <v>0.80954000000000004</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B457">
         <v>0.80674000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B458">
         <v>0.80496999999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B459">
         <v>0.81484999999999996</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B460">
         <v>0.83448</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B461">
         <v>0.82257999999999998</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B462">
         <v>0.81640999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B463">
         <v>0.78881000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B464">
         <v>0.79256000000000004</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B465">
         <v>0.81084999999999996</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B466">
         <v>0.83228000000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B467">
         <v>0.83043</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B468">
         <v>0.83560000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B469">
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B470">
         <v>0.85665999999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B471">
         <v>0.86768000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B472">
         <v>0.87897000000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B473">
         <v>0.89519000000000004</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B474">
         <v>0.89659999999999995</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B475">
         <v>0.89205999999999996</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B476">
         <v>0.89868999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B477">
         <v>0.91352999999999995</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B478">
         <v>0.92227000000000003</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B479">
         <v>0.93561000000000005</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B480">
         <v>0.93889</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B481">
         <v>0.92127000000000003</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482">
         <v>0.86975999999999998</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B483">
         <v>0.82640999999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484">
         <v>0.82852999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485">
         <v>0.81574999999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B486">
         <v>0.77966999999999997</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487">
         <v>0.80947999999999998</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B488">
         <v>0.81677999999999995</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489">
         <v>0.82186999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491">
         <v>0.7893</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492">
         <v>0.78783000000000003</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B493">
         <v>0.78547999999999996</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B494">
         <v>0.78981999999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B495">
         <v>0.77539000000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B496">
         <v>0.77264999999999995</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B497">
         <v>0.76217999999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B498">
         <v>0.72889000000000004</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B499">
         <v>0.71526000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B500">
         <v>0.71270999999999995</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B501">
         <v>0.71321999999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B502">
         <v>0.73919000000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503">
         <v>0.71926000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B504">
         <v>0.71543000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B505">
         <v>0.71506000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B506">
         <v>0.73655999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B507">
         <v>0.75946000000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B508">
         <v>0.74373999999999996</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B509">
         <v>0.70077999999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B510">
         <v>0.70689999999999997</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B511">
         <v>0.70801999999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B512">
         <v>0.70643</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B513">
         <v>0.70028999999999997</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B514">
         <v>0.69589999999999996</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B515">
         <v>0.70013999999999998</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B516">
         <v>0.70377000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517">
         <v>0.69540999999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B518">
         <v>0.67849000000000004</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B519">
         <v>0.67473000000000005</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B520">
         <v>0.69606999999999997</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B521">
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B522">
         <v>0.69918999999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B523">
         <v>0.69294999999999995</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B524">
         <v>0.69230000000000003</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B525">
         <v>0.69457000000000002</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B526">
         <v>0.71696000000000004</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B527">
         <v>0.71196000000000004</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B528">
         <v>0.71945000000000003</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B529">
         <v>0.70762999999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B530">
         <v>0.69249000000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B531">
         <v>0.67837999999999998</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B532">
         <v>0.68818000000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B533">
         <v>0.68630999999999998</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B534">
         <v>0.67495000000000005</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A535">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B535">
         <v>0.6774</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A536">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B536">
         <v>0.68315999999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A537">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B537">
         <v>0.68361000000000005</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A538">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B538">
         <v>0.66542999999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A539">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B539">
         <v>0.65503</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A540">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B540">
         <v>0.64861999999999997</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A541">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B541">
         <v>0.64922000000000002</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A542">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B542">
         <v>0.65098999999999996</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B543">
         <v>0.66327999999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B544">
         <v>0.66996999999999995</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B545">
         <v>0.67110000000000003</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A546">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B546">
         <v>0.65898000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A547">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B547">
         <v>0.66430999999999996</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A548">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B548">
         <v>0.65956000000000004</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A549">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B549">
         <v>0.64893999999999996</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A550">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B550">
         <v>0.65719000000000005</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A551">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B551">
         <v>0.66601999999999995</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A552">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B552">
         <v>0.67054000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A553">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B553">
         <v>0.67252000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A554">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B554">
         <v>0.67718999999999996</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A555">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B555">
         <v>0.67176999999999998</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A556">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B556">
         <v>0.66818</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A557">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B557">
         <v>0.67440999999999995</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A558">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B558">
         <v>0.66803999999999997</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A559">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B559">
         <v>0.67591000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A560">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B560">
         <v>0.67761000000000005</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A561">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B561">
         <v>0.69238</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A562">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B562">
         <v>0.69440999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A563">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B563">
         <v>0.69972999999999996</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A564">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B564">
         <v>0.69618000000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A565">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B565">
         <v>0.70094999999999996</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A566">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B566">
         <v>0.71060000000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A567">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B567">
         <v>0.70362000000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A568">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B568">
         <v>0.69977</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A569">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B569">
         <v>0.70398000000000005</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A570">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B570">
         <v>0.70130999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A571">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B571">
         <v>0.69818000000000002</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A572">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B572">
         <v>0.70238999999999996</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A573">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B573">
         <v>0.69886000000000004</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A574">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B574">
         <v>0.68842000000000003</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A575">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B575">
         <v>0.67693999999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A576">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B576">
         <v>0.67822000000000005</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A577">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B577">
         <v>0.66608000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A578">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B578">
         <v>0.65686</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A579">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B579">
         <v>0.65363000000000004</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A580">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B580">
         <v>0.65825</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A581">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B581">
         <v>0.65652999999999995</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A582">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B582">
         <v>0.65403</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A583">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B583">
         <v>0.64900999999999998</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A584">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B584">
         <v>0.63656000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A585">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B585">
         <v>0.63080000000000003</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A586">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B586">
         <v>0.62563999999999997</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A587">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B587">
         <v>0.62178999999999995</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A588">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588">
         <v>0.62243000000000004</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A589">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B589">
         <v>0.61797000000000002</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A590">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B590">
         <v>0.61346999999999996</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A591">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B591">
         <v>0.61080000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A592">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B592">
         <v>0.60163999999999995</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A593">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B593">
         <v>0.59480999999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A594">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B594">
         <v>0.59848000000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A595">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B595">
         <v>0.59516000000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A596">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B596">
         <v>0.61523000000000005</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A597">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B597">
         <v>0.61241000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A598">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B598">
         <v>0.60450000000000004</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A599">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B599">
         <v>0.61380999999999997</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A600">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B600">
         <v>0.62202000000000002</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A601">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B601">
         <v>0.62075999999999998</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A602">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B602">
         <v>0.61826000000000003</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A603">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B603">
         <v>0.61748000000000003</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A604">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B604">
         <v>0.62509000000000003</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A605">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B605">
         <v>0.62648999999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A606">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B606">
         <v>0.63495000000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A607">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B607">
         <v>0.63424000000000003</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A608">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B608">
         <v>0.61936000000000002</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A609">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B609">
         <v>0.61526999999999998</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A610">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B610">
         <v>0.60731000000000002</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A611">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B611">
         <v>0.60557000000000005</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A612">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B612">
         <v>0.60780000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A613">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B613">
         <v>0.60902999999999996</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A614">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B614">
         <v>0.61482999999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A615">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B615">
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A616">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B616">
         <v>0.60348000000000002</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A617">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B617">
         <v>0.60168999999999995</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A618">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B618">
         <v>0.58582000000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A619">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B619">
         <v>0.56874000000000002</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A620">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B620">
         <v>0.56303999999999998</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A621">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B621">
         <v>0.56542999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A622">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B622">
         <v>0.55820999999999998</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A623">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B623">
         <v>0.55186000000000002</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A624">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B624">
         <v>0.55191999999999997</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A625">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B625">
         <v>0.54576999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A626">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B626">
         <v>0.54708000000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A627">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B627">
         <v>0.53588999999999998</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A628">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B628">
         <v>0.54742999999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A629">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B629">
         <v>0.55218999999999996</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A630">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B630">
         <v>0.55952000000000002</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A631">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B631">
         <v>0.56325999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A632">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B632">
         <v>0.56738</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A633">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B633">
         <v>0.57084999999999997</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A634">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B634">
         <v>0.57240000000000002</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A635">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B635">
         <v>0.56616999999999995</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A636">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B636">
         <v>0.56411999999999995</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A637">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B637">
         <v>0.54337999999999997</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A638">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B638">
         <v>0.54305999999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A639">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B639">
         <v>0.54527000000000003</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A640">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B640">
         <v>0.53305999999999998</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A641">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B641">
         <v>0.53258000000000005</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A642">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B642">
         <v>0.53724000000000005</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A643">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B643">
         <v>0.52754999999999996</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A644">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B644">
         <v>0.53310999999999997</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A645">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B645">
         <v>0.53554000000000002</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A646">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B646">
         <v>0.53066000000000002</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A647">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B647">
         <v>0.53503999999999996</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A648">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B648">
         <v>0.53664000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A649">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B649">
         <v>0.55137999999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A650">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B650">
         <v>0.55179</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A651">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B651">
         <v>0.55832000000000004</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A652">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B652">
         <v>0.56705000000000005</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A653">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B653">
         <v>0.58572000000000002</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A654">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B654">
         <v>0.58499000000000001</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A655">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B655">
         <v>0.59326000000000001</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A656">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B656">
         <v>0.58562000000000003</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A657">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B657">
         <v>0.58167000000000002</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A658">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B658">
         <v>0.58582000000000001</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A659">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B659">
         <v>0.58962000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A660">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B660">
         <v>0.58662000000000003</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A661">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B661">
         <v>0.59358999999999995</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A662">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B662">
         <v>0.59458999999999995</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A663">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B663">
         <v>0.58779999999999999</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A664">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B664">
         <v>0.59375</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A665">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B665">
         <v>0.59670999999999996</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A666">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B666">
         <v>0.59486000000000006</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A667">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B667">
         <v>0.58958999999999995</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A668">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B668">
         <v>0.57572000000000001</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A669">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B669">
         <v>0.56979000000000002</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A670">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B670">
         <v>0.56805000000000005</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A671">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B671">
         <v>0.56435000000000002</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A672">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B672">
         <v>0.56091999999999997</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A673">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B673">
         <v>0.55108000000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A674">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B674">
         <v>0.54525000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A675">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B675">
         <v>0.54076000000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A676">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B676">
         <v>0.53908</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A677">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B677">
         <v>0.54715999999999998</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A678">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B678">
         <v>0.55376000000000003</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A679">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B679">
         <v>0.55628</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A680">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B680">
         <v>0.55505000000000004</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A681">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B681">
         <v>0.56364999999999998</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A682">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B682">
         <v>0.56813000000000002</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A683">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B683">
         <v>0.56533</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A684">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B684">
         <v>0.57091000000000003</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A685">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B685">
         <v>0.57289000000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A686">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B686">
         <v>0.56576000000000004</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A687">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B687">
         <v>0.57030000000000003</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A688">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B688">
         <v>0.57743</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A689">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B689">
         <v>0.58164000000000005</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A690">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B690">
         <v>0.58214999999999995</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A691">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B691">
         <v>0.58182</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A692">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B692">
         <v>0.59108000000000005</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A693">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B693">
         <v>0.5887</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A694">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B694">
         <v>0.59011999999999998</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A695">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B695">
         <v>0.58308000000000004</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A696">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B696">
         <v>0.59004999999999996</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A697">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B697">
         <v>0.59492999999999996</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A698">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B698">
         <v>0.60041999999999995</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A699">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B699">
         <v>0.61519999999999997</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A700">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B700">
         <v>0.63402999999999998</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A701">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B701">
         <v>0.63554999999999995</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A702">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B702">
         <v>0.63615999999999995</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A703">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B703">
         <v>0.65715999999999997</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A704">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B704">
         <v>0.64398999999999995</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A705">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B705">
         <v>0.64376999999999995</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A706">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B706">
         <v>0.62107000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A707">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B707">
         <v>0.61516999999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A708">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B708">
         <v>0.61697999999999997</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A709">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B709">
         <v>0.61001000000000005</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A710">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B710">
         <v>0.60690999999999995</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A711">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B711">
         <v>0.62019000000000002</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A712">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B712">
         <v>0.63595999999999997</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A713">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B713">
         <v>0.63497999999999999</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A714">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B714">
         <v>0.63597000000000004</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A715">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B715">
         <v>0.64678000000000002</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A716">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B716">
         <v>0.64570000000000005</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A717">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B717">
         <v>0.63456000000000001</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A718">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B718">
         <v>0.61999000000000004</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A719">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B719">
         <v>0.62192000000000003</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A720">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B720">
         <v>0.64339000000000002</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A721">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B721">
         <v>0.63066</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A722">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B722">
         <v>0.62539999999999996</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A723">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B723">
         <v>0.63517999999999997</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A724">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B724">
         <v>0.63224000000000002</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A725">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B725">
         <v>0.63393999999999995</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A726">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B726">
         <v>0.63971</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A727">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B727">
         <v>0.63907999999999998</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A728">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B728">
         <v>0.63614999999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A729">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B729">
         <v>0.62590999999999997</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A730">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B730">
         <v>0.62204000000000004</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A731">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B731">
         <v>0.61748999999999998</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A732">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B732">
         <v>0.61661999999999995</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A733">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B733">
         <v>0.60282000000000002</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A734">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B734">
         <v>0.60626000000000002</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A735">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B735">
         <v>0.60555000000000003</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A736">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B736">
         <v>0.59506000000000003</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A737">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B737">
         <v>0.58994999999999997</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A738">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B738">
         <v>0.59033999999999998</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A739">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B739">
         <v>0.58450000000000002</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A740">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B740">
         <v>0.59599000000000002</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A741">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B741">
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A742">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B742">
         <v>0.62034999999999996</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A743">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B743">
         <v>0.62339999999999995</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A744">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B744">
         <v>0.61326000000000003</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A745">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B745">
         <v>0.61062000000000005</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A746">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B746">
         <v>0.61007</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A747">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B747">
         <v>0.61114999999999997</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A748">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B748">
         <v>0.61156999999999995</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A749">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B749">
         <v>0.60792999999999997</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A750">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B750">
         <v>0.59714999999999996</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A751">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B751">
         <v>0.59358</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A752">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B752">
         <v>0.59135000000000004</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A753">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B753">
         <v>0.59279000000000004</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A754">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B754">
         <v>0.59387000000000001</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A755">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B755">
         <v>0.58784999999999998</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A756">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B756">
         <v>0.58040999999999998</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A757">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B757">
         <v>0.57518000000000002</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A758">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B758">
         <v>0.56259999999999999</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A759">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B759">
         <v>0.55410999999999999</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A760">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B760">
         <v>0.55159999999999998</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A761">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B761">
         <v>0.54923</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A762">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B762">
         <v>0.53971999999999998</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A763">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B763">
         <v>0.53434000000000004</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A764">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B764">
         <v>0.52671999999999997</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A765">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B765">
         <v>0.51732999999999996</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A766">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B766">
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A767">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B767">
         <v>0.52795000000000003</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A768">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B768">
         <v>0.53520000000000001</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A769">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B769">
         <v>0.53090999999999999</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A770">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B770">
         <v>0.53364</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A771">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B771">
         <v>0.52454000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A772">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B772">
         <v>0.50795999999999997</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A773">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B773">
         <v>0.51078000000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A774">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B774">
         <v>0.51224000000000003</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A775">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B775">
         <v>0.51304000000000005</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A776">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B776">
         <v>0.50749999999999995</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A777">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B777">
         <v>0.50949999999999995</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A778">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B778">
         <v>0.50783</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A779">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B779">
         <v>0.50997999999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A780">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B780">
         <v>0.51785000000000003</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A781">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B781">
         <v>0.51502999999999999</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A782">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B782">
         <v>0.52166999999999997</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A783">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B783">
         <v>0.52915000000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A784">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B784">
         <v>0.51605999999999996</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A785">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B785">
         <v>0.52347999999999995</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A786">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B786">
         <v>0.52202999999999999</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A787">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B787">
         <v>0.51143000000000005</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A788">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B788">
         <v>0.50839999999999996</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A789">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B789">
         <v>0.50278</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A790">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B790">
         <v>0.50338000000000005</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A791">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B791">
         <v>0.51229999999999998</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A792">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B792">
         <v>0.52258000000000004</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A793">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B793">
         <v>0.52927999999999997</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A794">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B794">
         <v>0.54040999999999995</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A795">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B795">
         <v>0.56096000000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A796">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B796">
         <v>0.57176000000000005</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A797">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B797">
         <v>0.56384000000000001</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A798">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B798">
         <v>0.56137000000000004</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A799">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B799">
         <v>0.56469999999999998</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A800">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B800">
         <v>0.58970999999999996</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A801">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B801">
         <v>0.58548999999999995</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A802">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B802">
         <v>0.58350999999999997</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A803">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B803">
         <v>0.57603000000000004</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A804">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B804">
         <v>0.57809999999999995</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A805">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B805">
         <v>0.57933000000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A806">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B806">
         <v>0.59136</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A807">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B807">
         <v>0.60568999999999995</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A808">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B808">
         <v>0.61475999999999997</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A809">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B809">
         <v>0.61265000000000003</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A810">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B810">
         <v>0.62178999999999995</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A811">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B811">
         <v>0.61512999999999995</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A812">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B812">
         <v>0.60189000000000004</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A813">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B813">
         <v>0.59360999999999997</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A814">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B814">
         <v>0.59469000000000005</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A815">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B815">
         <v>0.58618000000000003</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A816">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B816">
         <v>0.59326000000000001</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A817">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B817">
         <v>0.60096000000000005</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A818">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B818">
         <v>0.59431999999999996</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A819">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B819">
         <v>0.59031999999999996</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A820">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B820">
         <v>0.57789999999999997</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A821">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B821">
         <v>0.57647000000000004</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A822">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B822">
         <v>0.57532000000000005</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A823">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B823">
         <v>0.57196000000000002</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A824">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B824">
         <v>0.58126999999999995</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A825">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B825">
         <v>0.58408000000000004</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A826">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B826">
         <v>0.58391000000000004</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A827">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B827">
         <v>0.57721999999999996</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A828">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B828">
         <v>0.56367</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A829">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B829">
         <v>0.56430000000000002</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A830">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B830">
         <v>0.55689</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A831">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B831">
         <v>0.56208999999999998</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A832">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B832">
         <v>0.56018000000000001</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A833">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B833">
         <v>0.55256000000000005</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A834">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B834">
         <v>0.54588000000000003</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A835">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B835">
         <v>0.53264</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A836">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B836">
         <v>0.53839000000000004</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A837">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B837">
         <v>0.54081999999999997</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A838">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B838">
         <v>0.56257999999999997</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A839">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B839">
         <v>0.55515999999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A840">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B840">
         <v>0.55928</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A841">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B841">
         <v>0.55169999999999997</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A842">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B842">
         <v>0.55820000000000003</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A843">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B843">
         <v>0.56984999999999997</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A844">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B844">
         <v>0.57062000000000002</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A845">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B845">
         <v>0.57784000000000002</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A846">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B846">
         <v>0.58242000000000005</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A847">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B847">
         <v>0.58155000000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A848">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B848">
         <v>0.57955000000000001</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A849">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B849">
         <v>0.57674000000000003</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A850">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B850">
         <v>0.56967999999999996</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A851">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B851">
         <v>0.56925999999999999</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A852">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B852">
         <v>0.56881999999999999</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A853">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B853">
         <v>0.56264999999999998</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A854">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B854">
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A855">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B855">
         <v>0.55188999999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A856">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B856">
         <v>0.54718999999999995</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A857">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B857">
         <v>0.55032000000000003</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A858">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B858">
         <v>0.54783000000000004</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A859">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B859">
         <v>0.54357999999999995</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A860">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B860">
         <v>0.53800999999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A861">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B861">
         <v>0.53266999999999998</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A862">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B862">
         <v>0.52363999999999999</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A863">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B863">
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A864">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B864">
         <v>0.51792000000000005</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A865">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B865">
         <v>0.52383999999999997</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A866">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B866">
         <v>0.52068999999999999</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A867">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B867">
         <v>0.52107000000000003</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A868">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B868">
         <v>0.51951000000000003</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A869">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B869">
         <v>0.51661999999999997</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A870">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B870">
         <v>0.50343000000000004</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A871">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B871">
         <v>0.50156000000000001</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A872">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B872">
         <v>0.50778999999999996</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A873">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B873">
         <v>0.55022000000000004</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A874">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B874">
         <v>0.58462999999999998</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A875">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B875">
         <v>0.57174999999999998</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A876">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B876">
         <v>0.58757000000000004</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A877">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B877">
         <v>0.58982000000000001</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A878">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B878">
         <v>0.61692000000000002</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A879">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B879">
         <v>0.63476999999999995</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A880">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B880">
         <v>0.64873999999999998</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A881">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B881">
         <v>0.65493000000000001</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A882">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B882">
         <v>0.65678000000000003</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A883">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B883">
         <v>0.65847</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A884">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B884">
         <v>0.64771000000000001</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A885">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B885">
         <v>0.63539000000000001</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A886">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B886">
         <v>0.63715999999999995</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A887">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B887">
         <v>0.65010999999999997</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A888">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B888">
         <v>0.66100999999999999</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A889">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B889">
         <v>0.65225999999999995</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A890">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B890">
         <v>0.64915</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A891">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B891">
         <v>0.65022999999999997</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A892">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B892">
         <v>0.65671999999999997</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A893">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B893">
         <v>0.69186999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A894">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B894">
         <v>0.70108999999999999</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A895">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B895">
         <v>0.69367999999999996</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A896">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B896">
         <v>0.69418000000000002</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A897">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B897">
         <v>0.69076000000000004</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A898">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B898">
         <v>0.69615000000000005</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A899">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B899">
         <v>0.68552999999999997</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A900">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B900">
         <v>0.67390000000000005</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A901">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B901">
         <v>0.66349000000000002</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A902">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B902">
         <v>0.65764999999999996</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A903">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B903">
         <v>0.64661000000000002</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A904">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B904">
         <v>0.64603999999999995</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A905">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B905">
         <v>0.63449999999999995</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A906">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B906">
         <v>0.63756999999999997</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A907">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B907">
         <v>0.65147999999999995</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A908">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B908">
         <v>0.64903999999999995</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A909">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B909">
         <v>0.64607999999999999</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A910">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B910">
         <v>0.64876999999999996</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A911">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B911">
         <v>0.65786</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A912">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B912">
         <v>0.66085000000000005</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A913">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B913">
         <v>0.67737999999999998</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A914">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B914">
         <v>0.66627999999999998</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A915">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B915">
         <v>0.66759999999999997</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A916">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B916">
         <v>0.67206999999999995</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A917">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B917">
         <v>0.66498999999999997</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A918">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B918">
         <v>0.67061000000000004</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A919">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B919">
         <v>0.66815000000000002</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A920">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B920">
         <v>0.67857000000000001</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A921">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B921">
         <v>0.66657</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A922">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B922">
         <v>0.66739999999999999</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A923">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B923">
         <v>0.66569999999999996</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A924">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B924">
         <v>0.64698999999999995</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A925">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B925">
         <v>0.64856999999999998</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A926">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B926">
         <v>0.65922000000000003</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A927">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B927">
         <v>0.66291</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A928">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B928">
         <v>0.65636000000000005</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A929">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B929">
         <v>0.65780000000000005</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A930">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B930">
         <v>0.67205999999999999</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A931">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B931">
         <v>0.67469999999999997</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A932">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B932">
         <v>0.67481000000000002</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A933">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B933">
         <v>0.67717000000000005</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A934">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B934">
         <v>0.67551000000000005</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A935">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B935">
         <v>0.67396999999999996</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A936">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B936">
         <v>0.67318</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A937">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B937">
         <v>0.66881000000000002</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A938">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B938">
         <v>0.67186000000000001</v>
       </c>
     </row>
